--- a/data/trans_orig/Q31A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q31A-Estudios-trans_orig.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,68</t>
+          <t>16,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,53</t>
+          <t>19,51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>17,3</t>
+          <t>17,27</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,41; 16,97</t>
+          <t>16,43; 16,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,54; 20,88</t>
+          <t>18,51; 20,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,97; 17,72</t>
+          <t>16,96; 17,68</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,08</t>
+          <t>17,06</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,13</t>
+          <t>17,82</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,49</t>
+          <t>17,38</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,92; 17,26</t>
+          <t>16,9; 17,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,19; 18,73</t>
+          <t>16,78; 18,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,18; 17,71</t>
+          <t>16,91; 17,64</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,66</t>
+          <t>17,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,19</t>
+          <t>18,17</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,89</t>
+          <t>17,84</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,32; 18,14</t>
+          <t>17,23; 18,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,83; 18,74</t>
+          <t>17,82; 18,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,63; 18,2</t>
+          <t>17,57; 18,16</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,14</t>
+          <t>17,12</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,25</t>
+          <t>18,01</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,56</t>
+          <t>17,47</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,01; 17,31</t>
+          <t>16,98; 17,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,49; 18,67</t>
+          <t>17,07; 18,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,34; 17,72</t>
+          <t>17,12; 17,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q31A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q31A-Estudios-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,95; 17,39</t>
+          <t>16,93; 17,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,21; 18,17</t>
+          <t>17,19; 18,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,6; 17,27</t>
+          <t>16,59; 17,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,43; 16,98</t>
+          <t>16,39; 16,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,66; 19,91</t>
+          <t>18,61; 19,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,92; 22,02</t>
+          <t>19,84; 21,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,23; 23,86</t>
+          <t>20,31; 23,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,51; 20,88</t>
+          <t>18,52; 20,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,46; 17,94</t>
+          <t>17,46; 17,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,15; 19,08</t>
+          <t>18,15; 19,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,72; 18,92</t>
+          <t>17,69; 18,82</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,96; 17,68</t>
+          <t>16,94; 17,66</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,84; 17,07</t>
+          <t>16,83; 17,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,81; 17,06</t>
+          <t>16,8; 17,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,42 +884,42 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,67; 18,16</t>
+          <t>17,67; 18,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,92; 18,57</t>
+          <t>17,91; 18,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,85; 18,46</t>
+          <t>17,85; 18,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,78; 18,72</t>
+          <t>16,73; 18,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 17,4</t>
+          <t>17,16; 17,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,37; 17,65</t>
+          <t>17,36; 17,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,25; 17,53</t>
+          <t>17,25; 17,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,91; 17,64</t>
+          <t>16,83; 17,62</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,24; 17,66</t>
+          <t>17,22; 17,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,44; 18,03</t>
+          <t>17,41; 18,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,1; 17,7</t>
+          <t>17,08; 17,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,23; 18,04</t>
+          <t>17,26; 18,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,65; 18,24</t>
+          <t>17,66; 18,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,86; 18,73</t>
+          <t>17,91; 18,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,89; 18,99</t>
+          <t>17,89; 18,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,82; 18,71</t>
+          <t>17,81; 18,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,44; 17,8</t>
+          <t>17,44; 17,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,7; 18,19</t>
+          <t>17,71; 18,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,5; 18,08</t>
+          <t>17,51; 18,11</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,57; 18,16</t>
+          <t>17,55; 18,16</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,19</t>
+          <t>17,0; 17,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,21; 17,51</t>
+          <t>17,22; 17,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,9; 17,15</t>
+          <t>16,89; 17,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,98; 17,28</t>
+          <t>16,99; 17,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,96; 18,35</t>
+          <t>17,95; 18,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,48; 19,14</t>
+          <t>18,47; 19,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,3; 18,93</t>
+          <t>18,29; 18,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,07; 18,64</t>
+          <t>17,09; 18,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,34; 17,54</t>
+          <t>17,34; 17,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,69; 17,98</t>
+          <t>17,68; 17,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,45; 17,74</t>
+          <t>17,45; 17,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,12; 17,66</t>
+          <t>17,11; 17,66</t>
         </is>
       </c>
     </row>
